--- a/exports/Requests.xlsx
+++ b/exports/Requests.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="87">
   <si>
     <t>Index</t>
   </si>
@@ -52,7 +52,7 @@
     <t>09378156704</t>
   </si>
   <si>
-    <t>saman_1@gmail.com</t>
+    <t>saman_3@gmail.com</t>
   </si>
   <si>
     <t>marketing</t>
@@ -67,12 +67,6 @@
     <t>this is test</t>
   </si>
   <si>
-    <t>2023-08-29T07:28:10.717Z</t>
-  </si>
-  <si>
-    <t>saman_3@gmail.com</t>
-  </si>
-  <si>
     <t>2023-08-29T07:28:25.328Z</t>
   </si>
   <si>
@@ -80,6 +74,204 @@
   </si>
   <si>
     <t>2023-08-29T07:28:37.962Z</t>
+  </si>
+  <si>
+    <t>saman</t>
+  </si>
+  <si>
+    <t>saman1@gmail.com</t>
+  </si>
+  <si>
+    <t>AI3</t>
+  </si>
+  <si>
+    <t>koft</t>
+  </si>
+  <si>
+    <t>https://web.postman.co/workspace/0d8448/reques446b6</t>
+  </si>
+  <si>
+    <t>samannnn</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:01.773Z</t>
+  </si>
+  <si>
+    <t>saman2@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:08.683Z</t>
+  </si>
+  <si>
+    <t>saman5@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:14.504Z</t>
+  </si>
+  <si>
+    <t>saman232@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:17.427Z</t>
+  </si>
+  <si>
+    <t>saman2233@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:20.011Z</t>
+  </si>
+  <si>
+    <t>sama5454544554@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:23.221Z</t>
+  </si>
+  <si>
+    <t>54t5454@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:26.344Z</t>
+  </si>
+  <si>
+    <t>efdsfsd@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:29.602Z</t>
+  </si>
+  <si>
+    <t>fdsfsddsfgtrftrhrh@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:32.765Z</t>
+  </si>
+  <si>
+    <t>saeesa@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:40.237Z</t>
+  </si>
+  <si>
+    <t>saefertghyhthta@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:43.236Z</t>
+  </si>
+  <si>
+    <t>hh@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:45.845Z</t>
+  </si>
+  <si>
+    <t>hhhhhh@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:49.081Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:50.902Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:58:54.975Z</t>
+  </si>
+  <si>
+    <t>hhrfghh@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-04T12:59:00.508Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:14:42.385Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:14:43.407Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:14:43.741Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:05.367Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:05.955Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:07.063Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:07.433Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:07.805Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:08.599Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:09.105Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:09.509Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:09.889Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:11.981Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:16.145Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:17.405Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:19.531Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:20.258Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:23.569Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:24.827Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:25.235Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:30.846Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:31.155Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:35.542Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:35.888Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:37.932Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:38.313Z</t>
+  </si>
+  <si>
+    <t>2023-09-04T13:15:39.956Z</t>
+  </si>
+  <si>
+    <t>2023-09-12T10:21:07.279Z</t>
+  </si>
+  <si>
+    <t>test100000</t>
+  </si>
+  <si>
+    <t>test1000a@gmail.com</t>
+  </si>
+  <si>
+    <t>2023-09-12T10:21:31.794Z</t>
   </si>
 </sst>
 </file>
@@ -456,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J48"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -560,31 +752,1439 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
